--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -175,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,13 +426,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.36328125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
